--- a/xlsx/beam_eigen_cubic.xlsx
+++ b/xlsx/beam_eigen_cubic.xlsx
@@ -638,7 +638,7 @@
         <v>-5.127358916753231</v>
       </c>
       <c r="B2">
-        <v>-0.96609904762535492</v>
+        <v>-0.1758131450502781</v>
       </c>
       <c r="C2">
         <v>-0.9693362270952971</v>
@@ -658,10 +658,10 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>-6.749828300457523</v>
+        <v>-6.467933589412271</v>
       </c>
       <c r="B3">
-        <v>-1.5886032352434194</v>
+        <v>-0.1765188071576904</v>
       </c>
       <c r="C3">
         <v>-1.5882507625600175</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>-7.858941141976504</v>
+        <v>-7.69353466045222</v>
       </c>
       <c r="B4">
         <v>-2.2075468084649867</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>-8.991397428763312</v>
+        <v>-8.934566813686986</v>
       </c>
       <c r="B5">
         <v>-2.8194972290851137</v>
@@ -784,7 +784,7 @@
         <v>-3.6223783362449975</v>
       </c>
       <c r="B2">
-        <v>-0.88566091610472375</v>
+        <v>-0.07089569281190844</v>
       </c>
       <c r="C2">
         <v>-0.88532494543945339</v>
@@ -804,10 +804,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>-6.515768200502153</v>
+        <v>-5.202324696851054</v>
       </c>
       <c r="B3">
-        <v>-1.4962421925021978</v>
+        <v>-0.07099251126825593</v>
       </c>
       <c r="C3">
         <v>-1.4940190144036098</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>-6.670281174646213</v>
+        <v>-6.480195098448803</v>
       </c>
       <c r="B4">
         <v>-2.1374777007644559</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>-7.819705523561989</v>
+        <v>-7.695218224326235</v>
       </c>
       <c r="B5">
         <v>-2.7749135628655002</v>
@@ -927,7 +927,7 @@
         <v>-2.7298325128179193</v>
       </c>
       <c r="B2">
-        <v>-0.80230053052383854</v>
+        <v>-0.1257534039252683</v>
       </c>
       <c r="C2">
         <v>-0.8021849825207843</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>-4.598129632582693</v>
+        <v>-4.423238522212934</v>
       </c>
       <c r="B3">
-        <v>-1.1437356466805673</v>
+        <v>-0.1313475087312844</v>
       </c>
       <c r="C3">
         <v>-1.1399142370233146</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>-6.058844287114387</v>
+        <v>-5.761546414412725</v>
       </c>
       <c r="B4">
         <v>-1.5455902782501769</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>-7.122347759154341</v>
+        <v>-6.988846558898443</v>
       </c>
       <c r="B5">
         <v>-1.9741224772390944</v>
@@ -1081,7 +1081,7 @@
         <v>-2.1035023931529415</v>
       </c>
       <c r="B2">
-        <v>6.6252481636634539E-2</v>
+        <v>-0.1725237906811776</v>
       </c>
       <c r="C2">
         <v>6.456496771869101E-2</v>
@@ -1104,10 +1104,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>-3.7760087386729273</v>
+        <v>-3.851822255072685</v>
       </c>
       <c r="B3">
-        <v>0.10694960583246875</v>
+        <v>-0.20501554701206504</v>
       </c>
       <c r="C3">
         <v>0.10838702558236737</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>-5.725835985057825</v>
+        <v>-5.24371306771576</v>
       </c>
       <c r="B4">
         <v>1.9701226187833272E-2</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>-6.635644739006576</v>
+        <v>-6.486459149617318</v>
       </c>
       <c r="B5">
         <v>-0.10045855546081878</v>

--- a/xlsx/beam_eigen_cubic.xlsx
+++ b/xlsx/beam_eigen_cubic.xlsx
@@ -681,7 +681,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>-7.69353466045222</v>
+        <v>-6.456981376000966e-7</v>
       </c>
       <c r="B4">
         <v>-2.2075468084649867</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>-6.480195098448803</v>
+        <v>-5.832739423705124e-7</v>
       </c>
       <c r="B4">
         <v>-2.1374777007644559</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>-5.761546414412725</v>
+        <v>-0.12602675947968783</v>
       </c>
       <c r="B4">
         <v>-1.5455902782501769</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>-5.24371306771576</v>
+        <v>-0.21506149229157223</v>
       </c>
       <c r="B4">
         <v>1.9701226187833272E-2</v>

--- a/xlsx/beam_eigen_cubic.xlsx
+++ b/xlsx/beam_eigen_cubic.xlsx
@@ -681,7 +681,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>-6.456981376000966e-7</v>
+        <v>-7.69353466045222</v>
       </c>
       <c r="B4">
         <v>-2.2075468084649867</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>-5.832739423705124e-7</v>
+        <v>-6.480195098448803</v>
       </c>
       <c r="B4">
         <v>-2.1374777007644559</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>-0.12602675947968783</v>
+        <v>-5.761546414412725</v>
       </c>
       <c r="B4">
         <v>-1.5455902782501769</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>-0.21506149229157223</v>
+        <v>-5.24371306771576</v>
       </c>
       <c r="B4">
         <v>1.9701226187833272E-2</v>

--- a/xlsx/beam_eigen_cubic.xlsx
+++ b/xlsx/beam_eigen_cubic.xlsx
@@ -635,7 +635,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>-5.127358916753231</v>
+        <v>-1.0391173537354859e-7</v>
       </c>
       <c r="B2">
         <v>-0.1758131450502781</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>-6.467933589412271</v>
+        <v>-4.1422573856248173e-7</v>
       </c>
       <c r="B3">
         <v>-0.1765188071576904</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>-6.456981376000966e-7</v>
+        <v>-1.358673436908517e-7</v>
       </c>
       <c r="B4">
         <v>-2.2075468084649867</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>-8.934566813686986</v>
+        <v>-2.1873030274682795e-6</v>
       </c>
       <c r="B5">
         <v>-2.8194972290851137</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>-3.6223783362449975</v>
+        <v>-4.166885832064491e-8</v>
       </c>
       <c r="B2">
         <v>-0.07089569281190844</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>-5.202324696851054</v>
+        <v>-2.18941942034713e-7</v>
       </c>
       <c r="B3">
         <v>-0.07099251126825593</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>-5.832739423705124e-7</v>
+        <v>-5.237762425279566e-7</v>
       </c>
       <c r="B4">
         <v>-2.1374777007644559</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>-7.695218224326235</v>
+        <v>-7.167288436984128e-7</v>
       </c>
       <c r="B5">
         <v>-2.7749135628655002</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>-2.7298325128179193</v>
+        <v>-0.12606775821411806</v>
       </c>
       <c r="B2">
         <v>-0.1257534039252683</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>-4.423238522212934</v>
+        <v>-0.1260290458926947</v>
       </c>
       <c r="B3">
         <v>-0.1313475087312844</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>-0.12602675947968783</v>
+        <v>-0.12602675107498215</v>
       </c>
       <c r="B4">
         <v>-1.5455902782501769</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>-6.988846558898443</v>
+        <v>-0.12602665865530996</v>
       </c>
       <c r="B5">
         <v>-1.9741224772390944</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>-2.1035023931529415</v>
+        <v>-0.21514238386179</v>
       </c>
       <c r="B2">
         <v>-0.1725237906811776</v>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>-3.851822255072685</v>
+        <v>-0.21508135688223412</v>
       </c>
       <c r="B3">
         <v>-0.20501554701206504</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>-0.21506149229157223</v>
+        <v>-0.21506140980312846</v>
       </c>
       <c r="B4">
         <v>1.9701226187833272E-2</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>-6.486459149617318</v>
+        <v>-0.21506033000837152</v>
       </c>
       <c r="B5">
         <v>-0.10045855546081878</v>
